--- a/data/Logistics data.xlsx
+++ b/data/Logistics data.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303F07BC-B149-4CBE-B0C1-955B9613491F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34500" yWindow="2800" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -130,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -299,25 +301,25 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -414,7 +416,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -591,32 +593,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,8 +664,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -684,9 +686,13 @@
       <c r="G3" s="8">
         <v>4.1809232675024228</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="I3">
+        <f>D3/1000</f>
+        <v>7.3493284441454292E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="19"/>
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
@@ -705,9 +711,13 @@
       <c r="G4" s="8">
         <v>1.5432463846910847</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="I4">
+        <f t="shared" ref="I4:I13" si="0">D4/1000</f>
+        <v>1.448281963179928E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="19"/>
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
@@ -726,8 +736,12 @@
       <c r="G5" s="8">
         <v>7.2796792692089891</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.0189544754421541E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -749,8 +763,12 @@
       <c r="G6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
@@ -772,8 +790,12 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -795,8 +817,16 @@
       <c r="G8" s="8">
         <v>1.2924173212812546</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>3.0924137350935867E-3</v>
+      </c>
+      <c r="K8">
+        <f>SUM(I6:I13)*38.65</f>
+        <v>0.25706938257789785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -818,75 +848,91 @@
       <c r="G9" s="8">
         <v>9.3880506083442297E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>3.8270568595035885E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="20"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -908,141 +954,145 @@
       <c r="G13" s="8">
         <v>1.3241842759751337</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>3.1760935822651853E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="21"/>
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="18">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17" t="s">
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="18">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="17" t="s">
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="16"/>
+      <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1064,8 +1114,8 @@
         <v>0.79268986225572746</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="19"/>
       <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
@@ -1085,7 +1135,7 @@
         <v>0.64644494114439688</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" thickBot="1">
       <c r="A22" s="11" t="s">
         <v>34</v>
       </c>
@@ -1116,5 +1166,10 @@
     <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>